--- a/resultados/cotacoes commodities.xlsx
+++ b/resultados/cotacoes commodities.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1469,6 +1469,40 @@
         <v>74.38999938964844</v>
       </c>
     </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="2">
+        <v>44774</v>
+      </c>
+      <c r="B64">
+        <v>18.79000091552734</v>
+      </c>
+      <c r="C64">
+        <v>22.25</v>
+      </c>
+      <c r="D64">
+        <v>29.81999969482422</v>
+      </c>
+      <c r="E64">
+        <v>75.47000122070312</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="2">
+        <v>44775</v>
+      </c>
+      <c r="B65">
+        <v>18.63500022888184</v>
+      </c>
+      <c r="C65">
+        <v>22.24990081787109</v>
+      </c>
+      <c r="D65">
+        <v>29.19000053405762</v>
+      </c>
+      <c r="E65">
+        <v>75.91000366210938</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
